--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2327,28 +2327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.4512223793091</v>
+        <v>214.1661778061888</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.2729293013915</v>
+        <v>293.0316128192258</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.0595128909461</v>
+        <v>265.0650869642969</v>
       </c>
       <c r="AD2" t="n">
-        <v>162451.2223793091</v>
+        <v>214166.1778061888</v>
       </c>
       <c r="AE2" t="n">
-        <v>222272.9293013914</v>
+        <v>293031.6128192258</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.495300614085858e-06</v>
+        <v>3.597386098105677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.17447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>201059.5128909461</v>
+        <v>265065.0869642969</v>
       </c>
     </row>
     <row r="3">
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.6093094596352</v>
+        <v>174.6908970910315</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.0736633955466</v>
+        <v>239.0197922183004</v>
       </c>
       <c r="AC3" t="n">
-        <v>162.8876856961</v>
+        <v>216.2080787154402</v>
       </c>
       <c r="AD3" t="n">
-        <v>131609.3094596352</v>
+        <v>174690.8970910315</v>
       </c>
       <c r="AE3" t="n">
-        <v>180073.6633955466</v>
+        <v>239019.7922183004</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.001367857724969e-06</v>
+        <v>4.326965234461933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.13020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>162887.6856961</v>
+        <v>216208.0787154402</v>
       </c>
     </row>
     <row r="4">
@@ -2539,28 +2539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.4098438297247</v>
+        <v>161.5766828071415</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.0135722013865</v>
+        <v>221.0763456767895</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.5512242580076</v>
+        <v>199.9771295280601</v>
       </c>
       <c r="AD4" t="n">
-        <v>118409.8438297246</v>
+        <v>161576.6828071415</v>
       </c>
       <c r="AE4" t="n">
-        <v>162013.5722013865</v>
+        <v>221076.3456767895</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.195522524603347e-06</v>
+        <v>4.606871108554979e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.505208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>146551.2242580075</v>
+        <v>199977.1295280601</v>
       </c>
     </row>
     <row r="5">
@@ -2645,28 +2645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.5957999557002</v>
+        <v>150.1293606461848</v>
       </c>
       <c r="AB5" t="n">
-        <v>158.1632732260942</v>
+        <v>205.413614475965</v>
       </c>
       <c r="AC5" t="n">
-        <v>143.0683924129875</v>
+        <v>185.809227410256</v>
       </c>
       <c r="AD5" t="n">
-        <v>115595.7999557002</v>
+        <v>150129.3606461847</v>
       </c>
       <c r="AE5" t="n">
-        <v>158163.2732260943</v>
+        <v>205413.614475965</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.302519999112903e-06</v>
+        <v>4.76112555996668e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.205729166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>143068.3924129875</v>
+        <v>185809.227410256</v>
       </c>
     </row>
     <row r="6">
@@ -2751,28 +2751,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>113.8353336218848</v>
+        <v>148.3688943123693</v>
       </c>
       <c r="AB6" t="n">
-        <v>155.754525521876</v>
+        <v>203.0048667717467</v>
       </c>
       <c r="AC6" t="n">
-        <v>140.8895322089603</v>
+        <v>183.6303672062289</v>
       </c>
       <c r="AD6" t="n">
-        <v>113835.3336218848</v>
+        <v>148368.8943123693</v>
       </c>
       <c r="AE6" t="n">
-        <v>155754.525521876</v>
+        <v>203004.8667717467</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.349786553624651e-06</v>
+        <v>4.829268069588995e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.075520833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>140889.5322089603</v>
+        <v>183630.3672062289</v>
       </c>
     </row>
     <row r="7">
@@ -2857,28 +2857,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>104.3838010779611</v>
+        <v>147.4652992008064</v>
       </c>
       <c r="AB7" t="n">
-        <v>142.8225217230987</v>
+        <v>201.768528076304</v>
       </c>
       <c r="AC7" t="n">
-        <v>129.1917407025529</v>
+        <v>182.5120229406666</v>
       </c>
       <c r="AD7" t="n">
-        <v>104383.8010779611</v>
+        <v>147465.2992008064</v>
       </c>
       <c r="AE7" t="n">
-        <v>142822.5217230987</v>
+        <v>201768.528076304</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.387879895334859e-06</v>
+        <v>4.884185884751276e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.971354166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>129191.7407025529</v>
+        <v>182512.0229406666</v>
       </c>
     </row>
   </sheetData>
@@ -3154,28 +3154,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.2508646394805</v>
+        <v>180.6700651149263</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.214979262256</v>
+        <v>247.2007536908655</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.2063917678105</v>
+        <v>223.6082607071179</v>
       </c>
       <c r="AD2" t="n">
-        <v>130250.8646394805</v>
+        <v>180670.0651149263</v>
       </c>
       <c r="AE2" t="n">
-        <v>178214.979262256</v>
+        <v>247200.7536908655</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.909697189711722e-06</v>
+        <v>4.259687225976532e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.80729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>161206.3917678105</v>
+        <v>223608.2607071179</v>
       </c>
     </row>
     <row r="3">
@@ -3260,28 +3260,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.486503000695</v>
+        <v>155.4030285751174</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.2772400766435</v>
+        <v>212.6292795941359</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.4577982167463</v>
+        <v>192.3362395768005</v>
       </c>
       <c r="AD3" t="n">
-        <v>113486.503000695</v>
+        <v>155403.0285751174</v>
       </c>
       <c r="AE3" t="n">
-        <v>155277.2400766435</v>
+        <v>212629.2795941359</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.338852292139453e-06</v>
+        <v>4.887954151565161e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.4140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>140457.7982167463</v>
+        <v>192336.2395768005</v>
       </c>
     </row>
     <row r="4">
@@ -3366,28 +3366,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.3062936964456</v>
+        <v>143.3080706168885</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.6117403536677</v>
+        <v>196.0804245238093</v>
       </c>
       <c r="AC4" t="n">
-        <v>125.3828303971503</v>
+        <v>177.3667840079167</v>
       </c>
       <c r="AD4" t="n">
-        <v>101306.2936964455</v>
+        <v>143308.0706168885</v>
       </c>
       <c r="AE4" t="n">
-        <v>138611.7403536677</v>
+        <v>196080.4245238093</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.514759281459546e-06</v>
+        <v>5.145475366493037e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.9453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>125382.8303971503</v>
+        <v>177366.7840079168</v>
       </c>
     </row>
     <row r="5">
@@ -3472,28 +3472,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>99.87091805953257</v>
+        <v>141.8726949799755</v>
       </c>
       <c r="AB5" t="n">
-        <v>136.6477960829405</v>
+        <v>194.1164802530821</v>
       </c>
       <c r="AC5" t="n">
-        <v>123.6063222112076</v>
+        <v>175.590275821974</v>
       </c>
       <c r="AD5" t="n">
-        <v>99870.91805953257</v>
+        <v>141872.6949799755</v>
       </c>
       <c r="AE5" t="n">
-        <v>136647.7960829405</v>
+        <v>194116.4802530821</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.563317820309609e-06</v>
+        <v>5.216563240648145e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>123606.3222112076</v>
+        <v>175590.275821974</v>
       </c>
     </row>
   </sheetData>
@@ -3769,28 +3769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.85620815859849</v>
+        <v>126.6073109752256</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.2087399448991</v>
+        <v>173.2297083965819</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.7361865186154</v>
+        <v>156.6969081566832</v>
       </c>
       <c r="AD2" t="n">
-        <v>87856.20815859849</v>
+        <v>126607.3109752256</v>
       </c>
       <c r="AE2" t="n">
-        <v>120208.7399448991</v>
+        <v>173229.7083965819</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.060531999496122e-06</v>
+        <v>6.282144206521957e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>108736.1865186154</v>
+        <v>156696.9081566832</v>
       </c>
     </row>
     <row r="3">
@@ -3875,28 +3875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.29906779481014</v>
+        <v>118.4535635863407</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.4464359198661</v>
+        <v>162.0733915011681</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.0466357198309</v>
+        <v>146.6053344877749</v>
       </c>
       <c r="AD3" t="n">
-        <v>87299.06779481014</v>
+        <v>118453.5635863407</v>
       </c>
       <c r="AE3" t="n">
-        <v>119446.4359198661</v>
+        <v>162073.3915011681</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.107818607321551e-06</v>
+        <v>6.355302425551743e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.541666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>108046.6357198309</v>
+        <v>146605.3344877749</v>
       </c>
     </row>
   </sheetData>
@@ -4172,28 +4172,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.4570441077769</v>
+        <v>145.3937794659071</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.2909801846328</v>
+        <v>198.9341833860155</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.5200515495131</v>
+        <v>179.9481841295906</v>
       </c>
       <c r="AD2" t="n">
-        <v>105457.0441077769</v>
+        <v>145393.7794659071</v>
       </c>
       <c r="AE2" t="n">
-        <v>144290.9801846328</v>
+        <v>198934.1833860155</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.548715508795071e-06</v>
+        <v>5.363152344149451e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>130520.0515495131</v>
+        <v>179948.1841295906</v>
       </c>
     </row>
     <row r="3">
@@ -4278,28 +4278,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.55443579764248</v>
+        <v>123.725638699192</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.2688181549251</v>
+        <v>169.2868772581064</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.3133379661425</v>
+        <v>153.1303752882642</v>
       </c>
       <c r="AD3" t="n">
-        <v>91554.43579764248</v>
+        <v>123725.638699192</v>
       </c>
       <c r="AE3" t="n">
-        <v>125268.8181549251</v>
+        <v>169286.8772581064</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.934330582277701e-06</v>
+        <v>5.945930078843077e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.528645833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>113313.3379661425</v>
+        <v>153130.3752882642</v>
       </c>
     </row>
   </sheetData>
@@ -4575,28 +4575,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.75544489790205</v>
+        <v>121.4641622290357</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.5978947387101</v>
+        <v>166.1926253823395</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.6608325040326</v>
+        <v>150.3314344687098</v>
       </c>
       <c r="AD2" t="n">
-        <v>83755.44489790205</v>
+        <v>121464.1622290357</v>
       </c>
       <c r="AE2" t="n">
-        <v>114597.8947387101</v>
+        <v>166192.6253823396</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.222325133383564e-06</v>
+        <v>6.673334164634152e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.6328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>103660.8325040326</v>
+        <v>150331.4344687098</v>
       </c>
     </row>
   </sheetData>
@@ -4872,28 +4872,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.0752371202215</v>
+        <v>193.7497408342706</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.7618514617809</v>
+        <v>265.096943044631</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.0786151118081</v>
+        <v>239.7964628664253</v>
       </c>
       <c r="AD2" t="n">
-        <v>143075.2371202215</v>
+        <v>193749.7408342706</v>
       </c>
       <c r="AE2" t="n">
-        <v>195761.8514617808</v>
+        <v>265096.943044631</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.773986142904702e-06</v>
+        <v>4.04415636336289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.23697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>177078.6151118081</v>
+        <v>239796.4628664253</v>
       </c>
     </row>
     <row r="3">
@@ -4978,28 +4978,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.121586880535</v>
+        <v>157.4925001427361</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.5144339758493</v>
+        <v>215.4881867739302</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.481477470134</v>
+        <v>194.9222966678576</v>
       </c>
       <c r="AD3" t="n">
-        <v>115121.586880535</v>
+        <v>157492.5001427361</v>
       </c>
       <c r="AE3" t="n">
-        <v>157514.4339758493</v>
+        <v>215488.1867739302</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.275908620302855e-06</v>
+        <v>4.775902261256634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.505208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>142481.477470134</v>
+        <v>194922.2966678576</v>
       </c>
     </row>
     <row r="4">
@@ -5084,28 +5084,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.0623962429613</v>
+        <v>145.9592163612733</v>
       </c>
       <c r="AB4" t="n">
-        <v>153.3287143835573</v>
+        <v>199.7078390915703</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.6952370810347</v>
+        <v>180.6480032204402</v>
       </c>
       <c r="AD4" t="n">
-        <v>112062.3962429613</v>
+        <v>145959.2163612733</v>
       </c>
       <c r="AE4" t="n">
-        <v>153328.7143835573</v>
+        <v>199707.8390915703</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.425588005100255e-06</v>
+        <v>4.99411778408502e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.1015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>138695.2370810347</v>
+        <v>180648.0032204402</v>
       </c>
     </row>
     <row r="5">
@@ -5190,28 +5190,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.1245954030681</v>
+        <v>143.4101678106976</v>
       </c>
       <c r="AB5" t="n">
-        <v>138.3631327327059</v>
+        <v>196.2201184085891</v>
       </c>
       <c r="AC5" t="n">
-        <v>125.15794953861</v>
+        <v>177.4931457043948</v>
       </c>
       <c r="AD5" t="n">
-        <v>101124.5954030681</v>
+        <v>143410.1678106976</v>
       </c>
       <c r="AE5" t="n">
-        <v>138363.1327327059</v>
+        <v>196220.1184085891</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.503167631880937e-06</v>
+        <v>5.107220058267213e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.893229166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>125157.94953861</v>
+        <v>177493.1457043948</v>
       </c>
     </row>
     <row r="6">
@@ -5296,28 +5296,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>101.318171964653</v>
+        <v>143.6037443722825</v>
       </c>
       <c r="AB6" t="n">
-        <v>138.6279927242614</v>
+        <v>196.4849784001446</v>
       </c>
       <c r="AC6" t="n">
-        <v>125.3975316643049</v>
+        <v>177.7327278300897</v>
       </c>
       <c r="AD6" t="n">
-        <v>101318.171964653</v>
+        <v>143603.7443722825</v>
       </c>
       <c r="AE6" t="n">
-        <v>138627.9927242614</v>
+        <v>196484.9784001446</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.490245670603464e-06</v>
+        <v>5.088381308094979e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.932291666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>125397.5316643049</v>
+        <v>177732.7278300897</v>
       </c>
     </row>
   </sheetData>
@@ -5593,28 +5593,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.82642296894294</v>
+        <v>118.9178920195898</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.9585218330683</v>
+        <v>162.7087061482639</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.2733576441213</v>
+        <v>147.1800155966218</v>
       </c>
       <c r="AD2" t="n">
-        <v>81826.42296894293</v>
+        <v>118917.8920195898</v>
       </c>
       <c r="AE2" t="n">
-        <v>111958.5218330683</v>
+        <v>162708.7061482639</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.253494036696498e-06</v>
+        <v>6.815096582660277e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.763020833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>101273.3576441213</v>
+        <v>147180.0155966218</v>
       </c>
     </row>
   </sheetData>
@@ -5890,28 +5890,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.9911551867848</v>
+        <v>163.0719679506282</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.9136803964199</v>
+        <v>223.1222607774316</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.9836730042537</v>
+        <v>201.8277853629575</v>
       </c>
       <c r="AD2" t="n">
-        <v>121991.1551867848</v>
+        <v>163071.9679506282</v>
       </c>
       <c r="AE2" t="n">
-        <v>166913.6803964199</v>
+        <v>223122.2607774316</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.200822360108566e-06</v>
+        <v>4.752719306627106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.1171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>150983.6730042537</v>
+        <v>201827.7853629575</v>
       </c>
     </row>
     <row r="3">
@@ -5996,28 +5996,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.22266607201938</v>
+        <v>139.3033893273117</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.3925849978804</v>
+        <v>190.6010429093437</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.5663453068963</v>
+        <v>172.4103468843736</v>
       </c>
       <c r="AD3" t="n">
-        <v>98222.66607201938</v>
+        <v>139303.3893273117</v>
       </c>
       <c r="AE3" t="n">
-        <v>134392.5849978804</v>
+        <v>190601.0429093437</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.626441002696627e-06</v>
+        <v>5.384696252645469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.932291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>121566.3453068963</v>
+        <v>172410.3468843735</v>
       </c>
     </row>
     <row r="4">
@@ -6102,28 +6102,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>96.01850899836707</v>
+        <v>137.0992322536594</v>
       </c>
       <c r="AB4" t="n">
-        <v>131.3767600491636</v>
+        <v>187.5852179606269</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.8383464585472</v>
+        <v>169.6823480360245</v>
       </c>
       <c r="AD4" t="n">
-        <v>96018.50899836706</v>
+        <v>137099.2322536594</v>
       </c>
       <c r="AE4" t="n">
-        <v>131376.7600491636</v>
+        <v>187585.2179606269</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.724138244305424e-06</v>
+        <v>5.529761337226607e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.697916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>118838.3464585472</v>
+        <v>169682.3480360245</v>
       </c>
     </row>
   </sheetData>
@@ -6399,28 +6399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.8675659107962</v>
+        <v>168.5748451730086</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.5858006810669</v>
+        <v>230.651540162898</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.0190154933156</v>
+        <v>208.6384808912872</v>
       </c>
       <c r="AD2" t="n">
-        <v>126867.5659107962</v>
+        <v>168574.8451730086</v>
       </c>
       <c r="AE2" t="n">
-        <v>173585.8006810669</v>
+        <v>230651.540162898</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.024185712942049e-06</v>
+        <v>4.446891137124484e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.49479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>157019.0154933156</v>
+        <v>208638.4808912872</v>
       </c>
     </row>
     <row r="3">
@@ -6505,28 +6505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.9930378925303</v>
+        <v>153.614976300171</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.2338152286231</v>
+        <v>210.1827875882565</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.6093949682556</v>
+        <v>190.1232373342884</v>
       </c>
       <c r="AD3" t="n">
-        <v>111993.0378925303</v>
+        <v>153614.976300171</v>
       </c>
       <c r="AE3" t="n">
-        <v>153233.8152286231</v>
+        <v>210182.7875882565</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.384484661259434e-06</v>
+        <v>4.976690015920576e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>138609.3949682556</v>
+        <v>190123.2373342884</v>
       </c>
     </row>
     <row r="4">
@@ -6611,28 +6611,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.15435703015928</v>
+        <v>140.8615467838206</v>
       </c>
       <c r="AB4" t="n">
-        <v>135.6673656701109</v>
+        <v>192.7329826823936</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.7194627009354</v>
+        <v>174.3388173176805</v>
       </c>
       <c r="AD4" t="n">
-        <v>99154.35703015927</v>
+        <v>140861.5467838206</v>
       </c>
       <c r="AE4" t="n">
-        <v>135667.3656701109</v>
+        <v>192732.9826823935</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.587169578062023e-06</v>
+        <v>5.274726527468475e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.854166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>122719.4627009354</v>
+        <v>174338.8173176805</v>
       </c>
     </row>
     <row r="5">
@@ -6717,28 +6717,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>98.21309509409693</v>
+        <v>139.9202848477582</v>
       </c>
       <c r="AB5" t="n">
-        <v>134.3794895636452</v>
+        <v>191.4451065759278</v>
       </c>
       <c r="AC5" t="n">
-        <v>121.5544996825249</v>
+        <v>173.1738542992699</v>
       </c>
       <c r="AD5" t="n">
-        <v>98213.09509409693</v>
+        <v>139920.2848477582</v>
       </c>
       <c r="AE5" t="n">
-        <v>134379.4895636452</v>
+        <v>191445.1065759278</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.642112669159201e-06</v>
+        <v>5.355517182553137e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.7109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>121554.4996825249</v>
+        <v>173173.8542992699</v>
       </c>
     </row>
   </sheetData>
@@ -7014,28 +7014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.1615590712362</v>
+        <v>201.6535303212106</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.4576697816147</v>
+        <v>275.9112565112397</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.8490781393665</v>
+        <v>249.5786734337686</v>
       </c>
       <c r="AD2" t="n">
-        <v>150161.5590712362</v>
+        <v>201653.5303212106</v>
       </c>
       <c r="AE2" t="n">
-        <v>205457.6697816147</v>
+        <v>275911.2565112397</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.582420865790025e-06</v>
+        <v>3.736175509264178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.86197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>185849.0781393665</v>
+        <v>249578.6734337686</v>
       </c>
     </row>
     <row r="3">
@@ -7120,28 +7120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.3969320874678</v>
+        <v>171.7182216282989</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.7323940197762</v>
+        <v>234.952446505006</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.0105655379414</v>
+        <v>212.5289147684659</v>
       </c>
       <c r="AD3" t="n">
-        <v>120396.9320874678</v>
+        <v>171718.221628299</v>
       </c>
       <c r="AE3" t="n">
-        <v>164732.3940197762</v>
+        <v>234952.446505006</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.08474582761199e-06</v>
+        <v>4.462925453439965e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.934895833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>149010.5655379414</v>
+        <v>212528.9147684659</v>
       </c>
     </row>
     <row r="4">
@@ -7226,28 +7226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.8661073600199</v>
+        <v>158.605491201073</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.5331197418054</v>
+        <v>217.011030241646</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.402941296322</v>
+        <v>196.2998020923394</v>
       </c>
       <c r="AD4" t="n">
-        <v>115866.1073600199</v>
+        <v>158605.491201073</v>
       </c>
       <c r="AE4" t="n">
-        <v>158533.1197418054</v>
+        <v>217011.030241646</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.294992940438271e-06</v>
+        <v>4.767105195882815e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>143402.941296322</v>
+        <v>196299.8020923394</v>
       </c>
     </row>
     <row r="5">
@@ -7332,28 +7332,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.4471373439159</v>
+        <v>147.7752076857832</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.2233782483481</v>
+        <v>202.1925585376465</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.4090768857479</v>
+        <v>182.8955845299093</v>
       </c>
       <c r="AD5" t="n">
-        <v>113447.1373439159</v>
+        <v>147775.2076857832</v>
       </c>
       <c r="AE5" t="n">
-        <v>155223.3782483481</v>
+        <v>202192.5585376465</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.382493949010443e-06</v>
+        <v>4.893699249390532e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.0625</v>
       </c>
       <c r="AH5" t="n">
-        <v>140409.0768857479</v>
+        <v>182895.5845299092</v>
       </c>
     </row>
     <row r="6">
@@ -7438,28 +7438,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>103.6749219243239</v>
+        <v>146.4995571113976</v>
       </c>
       <c r="AB6" t="n">
-        <v>141.8526019915516</v>
+        <v>200.4471571440416</v>
       </c>
       <c r="AC6" t="n">
-        <v>128.3143887488935</v>
+        <v>181.3167617956231</v>
       </c>
       <c r="AD6" t="n">
-        <v>103674.9219243239</v>
+        <v>146499.5571113976</v>
       </c>
       <c r="AE6" t="n">
-        <v>141852.6019915516</v>
+        <v>200447.1571440416</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.406586724696892e-06</v>
+        <v>4.928556014862944e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.997395833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>128314.3887488935</v>
+        <v>181316.7617956231</v>
       </c>
     </row>
     <row r="7">
@@ -7544,28 +7544,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>103.8400785501499</v>
+        <v>146.6647137372236</v>
       </c>
       <c r="AB7" t="n">
-        <v>142.0785765732028</v>
+        <v>200.6731317256927</v>
       </c>
       <c r="AC7" t="n">
-        <v>128.5187966336293</v>
+        <v>181.5211696803589</v>
       </c>
       <c r="AD7" t="n">
-        <v>103840.0785501499</v>
+        <v>146664.7137372236</v>
       </c>
       <c r="AE7" t="n">
-        <v>142078.5765732028</v>
+        <v>200673.1317256927</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.404516251786339e-06</v>
+        <v>4.925560511580159e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.997395833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>128518.7966336293</v>
+        <v>181521.1696803589</v>
       </c>
     </row>
   </sheetData>
@@ -7841,28 +7841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.796173077855</v>
+        <v>149.2752192438491</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.8597237534647</v>
+        <v>204.2449405272308</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.652760644409</v>
+        <v>184.7520900629444</v>
       </c>
       <c r="AD2" t="n">
-        <v>108796.173077855</v>
+        <v>149275.2192438491</v>
       </c>
       <c r="AE2" t="n">
-        <v>148859.7237534647</v>
+        <v>204244.9405272308</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.391083375494014e-06</v>
+        <v>5.092337729888595e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.778645833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>134652.760644409</v>
+        <v>184752.0900629444</v>
       </c>
     </row>
     <row r="3">
@@ -7947,28 +7947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.24082171800652</v>
+        <v>133.634527029429</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.576205769262</v>
+        <v>182.8446554208305</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.4005117450068</v>
+        <v>165.3942181316034</v>
       </c>
       <c r="AD3" t="n">
-        <v>93240.82171800651</v>
+        <v>133634.527029429</v>
       </c>
       <c r="AE3" t="n">
-        <v>127576.205769262</v>
+        <v>182844.6554208305</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.863149671473837e-06</v>
+        <v>5.801232423365898e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.580729166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>115400.5117450068</v>
+        <v>165394.2181316034</v>
       </c>
     </row>
     <row r="4">
@@ -8053,28 +8053,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.15517509491796</v>
+        <v>133.5488804063405</v>
       </c>
       <c r="AB4" t="n">
-        <v>127.45902028109</v>
+        <v>182.7274699326585</v>
       </c>
       <c r="AC4" t="n">
-        <v>115.294510275355</v>
+        <v>165.2882166619516</v>
       </c>
       <c r="AD4" t="n">
-        <v>93155.17509491797</v>
+        <v>133548.8804063405</v>
       </c>
       <c r="AE4" t="n">
-        <v>127459.02028109</v>
+        <v>182727.4699326585</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.863786016637188e-06</v>
+        <v>5.802188013106917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.580729166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>115294.510275355</v>
+        <v>165288.2166619516</v>
       </c>
     </row>
   </sheetData>
@@ -8350,28 +8350,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.06119585759932</v>
+        <v>130.2668149634294</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.593945508748</v>
+        <v>178.2368031991615</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.7028742181266</v>
+        <v>161.2261328588078</v>
       </c>
       <c r="AD2" t="n">
-        <v>91061.19585759932</v>
+        <v>130266.8149634294</v>
       </c>
       <c r="AE2" t="n">
-        <v>124593.945508748</v>
+        <v>178236.8031991615</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.876064802219399e-06</v>
+        <v>5.944901788858895e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>112702.8742181266</v>
+        <v>161226.1328588078</v>
       </c>
     </row>
     <row r="3">
@@ -8456,28 +8456,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.78505691989953</v>
+        <v>120.3031657427925</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.4796317980258</v>
+        <v>164.6040987703123</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.885786236988</v>
+        <v>148.8945146070228</v>
       </c>
       <c r="AD3" t="n">
-        <v>88785.05691989954</v>
+        <v>120303.1657427925</v>
       </c>
       <c r="AE3" t="n">
-        <v>121479.6317980258</v>
+        <v>164604.0987703123</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.053340273141155e-06</v>
+        <v>6.216797466041618e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>109885.786236988</v>
+        <v>148894.5146070228</v>
       </c>
     </row>
   </sheetData>
@@ -14550,28 +14550,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.59858294943679</v>
+        <v>116.3569641643736</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.1197575343307</v>
+        <v>159.2047316765957</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.9420122538967</v>
+        <v>144.0104555306694</v>
       </c>
       <c r="AD2" t="n">
-        <v>85598.58294943679</v>
+        <v>116356.9641643736</v>
       </c>
       <c r="AE2" t="n">
-        <v>117119.7575343307</v>
+        <v>159204.7316765957</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.168391016604035e-06</v>
+        <v>6.513028740407244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.567708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>105942.0122538967</v>
+        <v>144010.4555306694</v>
       </c>
     </row>
   </sheetData>
@@ -14847,28 +14847,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.18653619519515</v>
+        <v>116.3536503404046</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.2924652207291</v>
+        <v>159.2001975564456</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.9073597681203</v>
+        <v>144.0063541405829</v>
       </c>
       <c r="AD2" t="n">
-        <v>87186.53619519515</v>
+        <v>116353.6503404046</v>
       </c>
       <c r="AE2" t="n">
-        <v>119292.4652207291</v>
+        <v>159200.1975564456</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.211009885875128e-06</v>
+        <v>6.862582307240426e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.1015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>107907.3597681203</v>
+        <v>144006.3541405828</v>
       </c>
     </row>
   </sheetData>
@@ -15144,28 +15144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.4020033109626</v>
+        <v>165.8027301610475</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.2123091590312</v>
+        <v>226.8586101064516</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.9674852674169</v>
+        <v>205.2075427560162</v>
       </c>
       <c r="AD2" t="n">
-        <v>124402.0033109626</v>
+        <v>165802.7301610475</v>
       </c>
       <c r="AE2" t="n">
-        <v>170212.3091590312</v>
+        <v>226858.6101064516</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.108144025423528e-06</v>
+        <v>4.591912321616608e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>153967.4852674169</v>
+        <v>205207.5427560162</v>
       </c>
     </row>
     <row r="3">
@@ -15250,28 +15250,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.9807333234604</v>
+        <v>142.1696053888958</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.1122472237253</v>
+        <v>194.5227261733294</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.8811836290869</v>
+        <v>175.9577502017627</v>
       </c>
       <c r="AD3" t="n">
-        <v>108980.7333234604</v>
+        <v>142169.6053888958</v>
       </c>
       <c r="AE3" t="n">
-        <v>149112.2472237253</v>
+        <v>194522.7261733294</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.521918206884714e-06</v>
+        <v>5.203214354816161e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.1015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>134881.1836290869</v>
+        <v>175957.7502017627</v>
       </c>
     </row>
     <row r="4">
@@ -15356,28 +15356,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.08466578217707</v>
+        <v>138.4853031237108</v>
       </c>
       <c r="AB4" t="n">
-        <v>132.8355227962894</v>
+        <v>189.4817012741614</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.1578869364741</v>
+        <v>171.3978336438469</v>
       </c>
       <c r="AD4" t="n">
-        <v>97084.66578217706</v>
+        <v>138485.3031237109</v>
       </c>
       <c r="AE4" t="n">
-        <v>132835.5227962894</v>
+        <v>189481.7012741614</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.685955653845853e-06</v>
+        <v>5.445560130219779e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.697916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>120157.8869364741</v>
+        <v>171397.8336438469</v>
       </c>
     </row>
     <row r="5">
@@ -15462,28 +15462,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.07785354287692</v>
+        <v>138.4784908844107</v>
       </c>
       <c r="AB5" t="n">
-        <v>132.8262019899442</v>
+        <v>189.4723804678162</v>
       </c>
       <c r="AC5" t="n">
-        <v>120.1494556948046</v>
+        <v>171.3894024021774</v>
       </c>
       <c r="AD5" t="n">
-        <v>97077.85354287692</v>
+        <v>138478.4908844107</v>
       </c>
       <c r="AE5" t="n">
-        <v>132826.2019899442</v>
+        <v>189472.3804678162</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.691347249356058e-06</v>
+        <v>5.453525569933631e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.684895833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>120149.4556948046</v>
+        <v>171389.4024021774</v>
       </c>
     </row>
   </sheetData>
@@ -15759,28 +15759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.5174434134498</v>
+        <v>197.691340457689</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.4716299715974</v>
+        <v>270.4900135404922</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.3388989708648</v>
+        <v>244.6748262833851</v>
       </c>
       <c r="AD2" t="n">
-        <v>146517.4434134498</v>
+        <v>197691.340457689</v>
       </c>
       <c r="AE2" t="n">
-        <v>200471.6299715974</v>
+        <v>270490.0135404922</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.676875386863817e-06</v>
+        <v>3.887275495503032e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.53645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>181338.8989708648</v>
+        <v>244674.8262833851</v>
       </c>
     </row>
     <row r="3">
@@ -15865,28 +15865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.8532031206985</v>
+        <v>160.4981173242312</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.2519518260424</v>
+        <v>219.6006048001214</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.8622918623451</v>
+        <v>198.6422312894454</v>
       </c>
       <c r="AD3" t="n">
-        <v>117853.2031206985</v>
+        <v>160498.1173242312</v>
       </c>
       <c r="AE3" t="n">
-        <v>161251.9518260424</v>
+        <v>219600.6048001214</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.17410258793865e-06</v>
+        <v>4.609333430631742e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.7265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>145862.2918623451</v>
+        <v>198642.2312894454</v>
       </c>
     </row>
     <row r="4">
@@ -15971,28 +15971,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.4311664193299</v>
+        <v>156.9054884222704</v>
       </c>
       <c r="AB4" t="n">
-        <v>156.5697702416279</v>
+        <v>214.68501144086</v>
       </c>
       <c r="AC4" t="n">
-        <v>141.6269711168625</v>
+        <v>194.1957752613117</v>
       </c>
       <c r="AD4" t="n">
-        <v>114431.1664193299</v>
+        <v>156905.4884222704</v>
       </c>
       <c r="AE4" t="n">
-        <v>156569.7702416279</v>
+        <v>214685.01144086</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.332767386869347e-06</v>
+        <v>4.839741535509877e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.270833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>141626.9711168625</v>
+        <v>194195.7752613117</v>
       </c>
     </row>
     <row r="5">
@@ -16077,28 +16077,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>102.8930314845669</v>
+        <v>145.4526048335279</v>
       </c>
       <c r="AB5" t="n">
-        <v>140.782784997305</v>
+        <v>199.0146708491864</v>
       </c>
       <c r="AC5" t="n">
-        <v>127.3466735870799</v>
+        <v>180.0209899822413</v>
       </c>
       <c r="AD5" t="n">
-        <v>102893.0314845669</v>
+        <v>145452.6048335279</v>
       </c>
       <c r="AE5" t="n">
-        <v>140782.784997305</v>
+        <v>199014.6708491864</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.446831434904454e-06</v>
+        <v>5.005381811863655e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.958333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>127346.6735870799</v>
+        <v>180020.9899822413</v>
       </c>
     </row>
     <row r="6">
@@ -16183,28 +16183,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>102.0973932239693</v>
+        <v>144.6569665729303</v>
       </c>
       <c r="AB6" t="n">
-        <v>139.6941576280732</v>
+        <v>197.9260434799545</v>
       </c>
       <c r="AC6" t="n">
-        <v>126.361943286069</v>
+        <v>179.0362596812305</v>
       </c>
       <c r="AD6" t="n">
-        <v>102097.3932239693</v>
+        <v>144656.9665729303</v>
       </c>
       <c r="AE6" t="n">
-        <v>139694.1576280732</v>
+        <v>197926.0434799545</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.481824045314558e-06</v>
+        <v>5.056196996477179e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.8671875</v>
       </c>
       <c r="AH6" t="n">
-        <v>126361.943286069</v>
+        <v>179036.2596812305</v>
       </c>
     </row>
   </sheetData>
@@ -16480,28 +16480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.51261011223121</v>
+        <v>120.0909299635363</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.6338815887265</v>
+        <v>164.3137084139524</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.5979462231005</v>
+        <v>148.6318386987083</v>
       </c>
       <c r="AD2" t="n">
-        <v>84512.61011223121</v>
+        <v>120090.9299635363</v>
       </c>
       <c r="AE2" t="n">
-        <v>115633.8815887265</v>
+        <v>164313.7084139524</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.01878783319507e-06</v>
+        <v>6.699079882407887e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.8828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>104597.9462231005</v>
+        <v>148631.8386987083</v>
       </c>
     </row>
   </sheetData>
@@ -16777,28 +16777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.2840788675971</v>
+        <v>134.0543322794111</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.9495891616738</v>
+        <v>183.4190514843563</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.5929967926034</v>
+        <v>165.9137946409964</v>
       </c>
       <c r="AD2" t="n">
-        <v>102284.0788675971</v>
+        <v>134054.3322794111</v>
       </c>
       <c r="AE2" t="n">
-        <v>139949.5891616738</v>
+        <v>183419.0514843563</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.700267702176092e-06</v>
+        <v>5.631461918085261e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.192708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>126592.9967926034</v>
+        <v>165913.7946409964</v>
       </c>
     </row>
     <row r="3">
@@ -16883,28 +16883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.53201874852496</v>
+        <v>130.1593827730322</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.8699020424664</v>
+        <v>178.0898097366864</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.0479324440654</v>
+        <v>161.0931682460846</v>
       </c>
       <c r="AD3" t="n">
-        <v>90532.01874852496</v>
+        <v>130159.3827730322</v>
       </c>
       <c r="AE3" t="n">
-        <v>123869.9020424664</v>
+        <v>178089.8097366864</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.967138676890482e-06</v>
+        <v>6.037614621648454e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.580729166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>112047.9324440654</v>
+        <v>161093.1682460846</v>
       </c>
     </row>
   </sheetData>
@@ -17180,28 +17180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.1952867180134</v>
+        <v>161.9411411371482</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.8247380462087</v>
+        <v>221.5750136426711</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.998657783606</v>
+        <v>200.428205323163</v>
       </c>
       <c r="AD2" t="n">
-        <v>121195.2867180134</v>
+        <v>161941.1411371482</v>
       </c>
       <c r="AE2" t="n">
-        <v>165824.7380462087</v>
+        <v>221575.0136426711</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.213530378799666e-06</v>
+        <v>4.797513868072509e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.1953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>149998.657783606</v>
+        <v>200428.205323163</v>
       </c>
     </row>
     <row r="3">
@@ -17286,28 +17286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.67940397461959</v>
+        <v>136.4251688852034</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.9127815954148</v>
+        <v>186.6629347223288</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.4186494572261</v>
+        <v>168.8480862155565</v>
       </c>
       <c r="AD3" t="n">
-        <v>95679.40397461959</v>
+        <v>136425.1688852034</v>
       </c>
       <c r="AE3" t="n">
-        <v>130912.7815954148</v>
+        <v>186662.9347223288</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.739383548671351e-06</v>
+        <v>5.582565688858973e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.763020833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>118418.6494572261</v>
+        <v>168848.0862155565</v>
       </c>
     </row>
     <row r="4">
@@ -17392,28 +17392,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.40561735451988</v>
+        <v>135.1513822651036</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.1699305462956</v>
+        <v>184.9200836732096</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.8421336661275</v>
+        <v>167.271570424458</v>
       </c>
       <c r="AD4" t="n">
-        <v>94405.61735451987</v>
+        <v>135151.3822651036</v>
       </c>
       <c r="AE4" t="n">
-        <v>129169.9305462956</v>
+        <v>184920.0836732096</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.810171475384847e-06</v>
+        <v>5.688245741657152e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.59375</v>
       </c>
       <c r="AH4" t="n">
-        <v>116842.1336661275</v>
+        <v>167271.570424458</v>
       </c>
     </row>
   </sheetData>
